--- a/data/trans_camb/P1412-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1412-Edad-trans_camb.xlsx
@@ -637,16 +637,16 @@
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="inlineStr"/>
       <c r="E5" s="5" t="n">
-        <v>-0.4566768484121229</v>
+        <v>-0.4379469149526766</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.154537409011574</v>
+        <v>-1.38000632719148</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.112763877432613</v>
+        <v>-0.2116379893111878</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.6368122813492662</v>
+        <v>-0.5619709243198424</v>
       </c>
     </row>
     <row r="6">
@@ -659,13 +659,13 @@
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>1.343361456061465</v>
+        <v>1.28429792217222</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6405933529125902</v>
+        <v>0.6286318804993273</v>
       </c>
       <c r="H6" s="5" t="n">
         <v>0</v>
@@ -759,18 +759,18 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.1512752019772974</v>
+        <v>-0.1517671747543713</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.7507654159638874</v>
+        <v>-0.9722544047388155</v>
       </c>
       <c r="E11" s="5" t="inlineStr"/>
       <c r="F11" s="5" t="inlineStr"/>
       <c r="G11" s="5" t="n">
-        <v>-0.1539102921335885</v>
+        <v>-0.1248363727795008</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.4008512421794145</v>
+        <v>-0.3977332788727238</v>
       </c>
     </row>
     <row r="12">
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.041659671806589</v>
+        <v>1.149561563172958</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>0</v>
@@ -789,7 +789,7 @@
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="inlineStr"/>
       <c r="G12" s="5" t="n">
-        <v>0.5018092592495518</v>
+        <v>0.5403501337861019</v>
       </c>
       <c r="H12" s="5" t="n">
         <v>0</v>
@@ -887,16 +887,16 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.4757129543591374</v>
+        <v>-0.6300264106932199</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.6283740217353141</v>
+        <v>-0.6334371108960005</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.2524206062472123</v>
+        <v>-0.2597012978460274</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.1601621014684179</v>
+        <v>-0.1782640677304146</v>
       </c>
     </row>
     <row r="18">
@@ -908,19 +908,19 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.9250413617995064</v>
+        <v>1.098090259835714</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2860079095372619</v>
+        <v>0.2845278779346534</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2547839383523319</v>
+        <v>0.2548996923699794</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.142546628361493</v>
+        <v>0.1419635416752524</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4025972041191629</v>
+        <v>0.3719802524245336</v>
       </c>
     </row>
     <row r="19">
@@ -992,7 +992,7 @@
         <v>-0.3381221439959863</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.4857673615723569</v>
+        <v>0.4857673615723567</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0</v>
@@ -1004,7 +1004,7 @@
         <v>-0.1691096117291206</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.3720101404887093</v>
+        <v>0.3720101404887094</v>
       </c>
     </row>
     <row r="23">
@@ -1015,20 +1015,20 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.146409220114308</v>
+        <v>-1.237361287922619</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.3157690895017928</v>
+        <v>-0.3165119518351671</v>
       </c>
       <c r="E23" s="5" t="inlineStr"/>
       <c r="F23" s="5" t="n">
-        <v>0.08337377479249523</v>
+        <v>0.08370168437835541</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.6775446951252228</v>
+        <v>-0.6292669277587417</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.04927038428550843</v>
+        <v>-0.03213444009946809</v>
       </c>
     </row>
     <row r="24">
@@ -1042,17 +1042,17 @@
         <v>0</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.603225030916658</v>
+        <v>1.539733123026648</v>
       </c>
       <c r="E24" s="5" t="inlineStr"/>
       <c r="F24" s="5" t="n">
-        <v>0.7341342174272786</v>
+        <v>0.7326699970126932</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.929439330021361</v>
+        <v>0.9908282374558866</v>
       </c>
     </row>
     <row r="25">
@@ -1078,7 +1078,7 @@
         <v>-1</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>2.199816655510949</v>
+        <v>2.19981665551095</v>
       </c>
     </row>
     <row r="26">
@@ -1089,12 +1089,14 @@
         </is>
       </c>
       <c r="C26" s="6" t="inlineStr"/>
-      <c r="D26" s="6" t="inlineStr"/>
+      <c r="D26" s="6" t="n">
+        <v>-0.935962847453814</v>
+      </c>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="n">
-        <v>-0.5404371566621827</v>
+        <v>-0.5499504641366232</v>
       </c>
     </row>
     <row r="27">
@@ -1126,7 +1128,7 @@
         <v>1.581746973622196</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.4982599603532374</v>
+        <v>0.4982599603532371</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>-0.201536387898183</v>
@@ -1138,7 +1140,7 @@
         <v>0.6722789512746117</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.2919438588919973</v>
+        <v>0.2919438588919974</v>
       </c>
     </row>
     <row r="29">
@@ -1149,22 +1151,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.4149483429073449</v>
+        <v>0.4230229661707928</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.2590251718074125</v>
+        <v>-0.2292450754303432</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.366863832676499</v>
+        <v>-1.380486177694574</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.297922523293269</v>
+        <v>-1.133590216743349</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.2441683690047712</v>
+        <v>-0.1309516169651881</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.4509599281187966</v>
+        <v>-0.4104791011102087</v>
       </c>
     </row>
     <row r="30">
@@ -1175,22 +1177,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.13752860786262</v>
+        <v>3.206120872595177</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.32086065996192</v>
+        <v>1.36281635495486</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.9580833007567654</v>
+        <v>0.9562987207878041</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.126494667214462</v>
+        <v>1.045493387462299</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.60665352712433</v>
+        <v>1.603929976407029</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.978374918732335</v>
+        <v>0.9808691232102028</v>
       </c>
     </row>
     <row r="31">
@@ -1204,7 +1206,7 @@
         <v>6.592311376835267</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>2.076618359342403</v>
+        <v>2.076618359342402</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>-0.2214072146981825</v>
@@ -1216,7 +1218,7 @@
         <v>1.154892339384963</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.5015235498978577</v>
+        <v>0.501523549897858</v>
       </c>
     </row>
     <row r="32">
@@ -1230,13 +1232,13 @@
       <c r="D32" s="6" t="inlineStr"/>
       <c r="E32" s="6" t="inlineStr"/>
       <c r="F32" s="6" t="n">
-        <v>-0.7526327926871403</v>
+        <v>-0.7006633728248394</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.4957120607858355</v>
+        <v>-0.3317954101263798</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.4898054997507448</v>
+        <v>-0.4249361066567434</v>
       </c>
     </row>
     <row r="33">
@@ -1250,13 +1252,13 @@
       <c r="D33" s="6" t="inlineStr"/>
       <c r="E33" s="6" t="inlineStr"/>
       <c r="F33" s="6" t="n">
-        <v>4.268477375453529</v>
+        <v>3.78618304939618</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>5.798594939107077</v>
+        <v>7.066800495025237</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>4.818289511077363</v>
+        <v>5.339814810805936</v>
       </c>
     </row>
     <row r="34">
@@ -1274,19 +1276,19 @@
         <v>-0.378497043453295</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>-0.3897883165415092</v>
+        <v>-0.3897883165415096</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>0.535325806002434</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>0.2970400396978971</v>
+        <v>0.2970400396978968</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>0.1115716015959854</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-0.006949381096007373</v>
+        <v>-0.006949381096007026</v>
       </c>
     </row>
     <row r="35">
@@ -1297,22 +1299,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-3.189095160236436</v>
+        <v>-3.812854577998586</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.394660728056095</v>
+        <v>-3.431450836243921</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.8624193139008101</v>
+        <v>-0.8644188682318072</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-1.137339907664358</v>
+        <v>-1.298251500435202</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.415920323023741</v>
+        <v>-1.36674865272261</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.555884686636585</v>
+        <v>-1.519150012771736</v>
       </c>
     </row>
     <row r="36">
@@ -1323,22 +1325,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>2.302239950015216</v>
+        <v>2.116605342897532</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.778311164314513</v>
+        <v>1.747001589446431</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2.151146212893094</v>
+        <v>2.209409087734376</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1.302835809775849</v>
+        <v>1.22844340763614</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.624763368139778</v>
+        <v>1.651730009568669</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>1.063443342808069</v>
+        <v>1.184501608198778</v>
       </c>
     </row>
     <row r="37">
@@ -1352,19 +1354,19 @@
         <v>-0.1389147552985827</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>-0.1430588416664656</v>
+        <v>-0.1430588416664657</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>0.637830890009852</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>0.3539177651529283</v>
+        <v>0.3539177651529281</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.06489757215281031</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.004042228978021073</v>
+        <v>-0.004042228978020872</v>
       </c>
     </row>
     <row r="38">
@@ -1375,22 +1377,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.7612941957408588</v>
+        <v>-0.7943039550161047</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.7300231173911119</v>
+        <v>-0.6891391504798803</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.7659849046521252</v>
+        <v>-0.8067914672037939</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.6912326057207553</v>
+        <v>-0.7709029233744812</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.5935381378606556</v>
+        <v>-0.5556472585787604</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.5744030924148011</v>
+        <v>-0.5785745399428824</v>
       </c>
     </row>
     <row r="39">
@@ -1401,20 +1403,20 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2.155444257154453</v>
+        <v>1.532109337419201</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.331622788023354</v>
+        <v>1.462426237629601</v>
       </c>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>4.977458239073198</v>
+        <v>4.190365806099847</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1.6474556385611</v>
+        <v>1.800020869885239</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.18909166932491</v>
+        <v>1.32300143566081</v>
       </c>
     </row>
     <row r="40">
@@ -1455,22 +1457,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-4.779494403026382</v>
+        <v>-4.550575302439007</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-3.69459281083963</v>
+        <v>-3.825428558524039</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-4.929685545925353</v>
+        <v>-4.832966356913382</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-4.940800553408185</v>
+        <v>-4.933186989940877</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-3.798104319883675</v>
+        <v>-3.753515576382362</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-3.767262465135476</v>
+        <v>-3.566425970402585</v>
       </c>
     </row>
     <row r="42">
@@ -1481,22 +1483,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.678939510926994</v>
+        <v>1.722759642328666</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.70774797130378</v>
+        <v>2.592684625771643</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.4597206187489028</v>
+        <v>0.1030934622416035</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>-0.5196785643523518</v>
+        <v>-0.4567020287448404</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.01208935832175845</v>
+        <v>0.1438104525823366</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>0.04913317074096987</v>
+        <v>-0.06513447634547059</v>
       </c>
     </row>
     <row r="43">
@@ -1516,7 +1518,7 @@
         <v>-0.5355879656481609</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>-0.6220104040728072</v>
+        <v>-0.6220104040728073</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>-0.4464529537109876</v>
@@ -1533,22 +1535,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.7434228892106649</v>
+        <v>-0.7401240535095291</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.5975245238651292</v>
+        <v>-0.5978064206681107</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.8673080843154778</v>
+        <v>-0.8534477694473521</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.8288480385206505</v>
+        <v>-0.8199436006706303</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.7102270103436569</v>
+        <v>-0.7321958169813666</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.656378184090762</v>
+        <v>-0.6488299951233744</v>
       </c>
     </row>
     <row r="45">
@@ -1559,22 +1561,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.7670859019451147</v>
+        <v>0.7418751663567675</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.264054158689897</v>
+        <v>1.175024369908773</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.2682609859967806</v>
+        <v>0.1957564443630394</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>-0.1281297947759339</v>
+        <v>-0.1403530557459232</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.07652484247335256</v>
+        <v>0.07811080204233689</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.05408460318249418</v>
+        <v>-0.00733259807652994</v>
       </c>
     </row>
     <row r="46">
@@ -1604,7 +1606,7 @@
         <v>-0.03068744711964928</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>0.05503773529656189</v>
+        <v>0.0550377352965618</v>
       </c>
     </row>
     <row r="47">
@@ -1615,22 +1617,22 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.3644151434448497</v>
+        <v>-0.3755916408915214</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.1904150240862809</v>
+        <v>-0.1813826461119317</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.5246995822764048</v>
+        <v>-0.5611279281173182</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.5125158476836567</v>
+        <v>-0.4720450488069407</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.3219932431355966</v>
+        <v>-0.3343159367920724</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-0.2326244288880947</v>
+        <v>-0.2252117238322332</v>
       </c>
     </row>
     <row r="48">
@@ -1641,22 +1643,22 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.5001585504999077</v>
+        <v>0.4737844289261953</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.6630088523029487</v>
+        <v>0.6797203796681611</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.2444429109129335</v>
+        <v>0.2014882530989862</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0.1866618159744635</v>
+        <v>0.1756356653384053</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.2354839624745741</v>
+        <v>0.2171317576869706</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>0.3080533650566308</v>
+        <v>0.3129157879672007</v>
       </c>
     </row>
     <row r="49">
@@ -1682,7 +1684,7 @@
         <v>-0.04485998267444583</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.08045608493329501</v>
+        <v>0.08045608493329488</v>
       </c>
     </row>
     <row r="50">
@@ -1693,22 +1695,22 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.4199204903964374</v>
+        <v>-0.4222661110806235</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.2356284329213242</v>
+        <v>-0.2266428036438132</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.5867864025515792</v>
+        <v>-0.6086078636185468</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.5494492697527887</v>
+        <v>-0.5088418743119277</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.3870548009858029</v>
+        <v>-0.4014596512690302</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.2782647634005576</v>
+        <v>-0.2603167090740542</v>
       </c>
     </row>
     <row r="51">
@@ -1719,22 +1721,22 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>1.048421439698183</v>
+        <v>0.9892748267945826</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>1.451239523043327</v>
+        <v>1.486297491120385</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.5089917843938881</v>
+        <v>0.4227548013569031</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.3641986685433899</v>
+        <v>0.3568601278747416</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.4444249836719687</v>
+        <v>0.4130917343362009</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.5830351823959093</v>
+        <v>0.6017892572897474</v>
       </c>
     </row>
     <row r="52">
